--- a/labs.xlsx
+++ b/labs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="490">
   <si>
     <t>LAB</t>
   </si>
@@ -1448,6 +1448,42 @@
   </si>
   <si>
     <t>Laboratoire de Parasitologie-Mycologie, CHU Clermont-Ferrand</t>
+  </si>
+  <si>
+    <t>50 Divizija br 6</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>F.Y.R. Macedonia</t>
+  </si>
+  <si>
+    <t>+389 23109 829</t>
+  </si>
+  <si>
+    <t>Maja Jurhar Pavlova</t>
+  </si>
+  <si>
+    <t>jurharm@yahoo.com</t>
+  </si>
+  <si>
+    <t>Department of Clinical Parasitology, Hospital for Tropical Diseases</t>
+  </si>
+  <si>
+    <t>http://www.thehtd.org</t>
+  </si>
+  <si>
+    <t>3rd Floor Mortimer Market Centre, Mortimer Market</t>
+  </si>
+  <si>
+    <t>WC1E 6JB</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Parasitological Laboratory, Institute of Microbiology and Parasitology, Faculty of Medicine, Ss. Cyril &amp; Methodius University</t>
   </si>
 </sst>
 </file>
@@ -1514,9 +1550,109 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1630,6 +1766,46 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1644,8 +1820,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q73" totalsRowShown="0">
-  <autoFilter ref="A1:Q73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q75" totalsRowShown="0">
+  <autoFilter ref="A1:Q75"/>
   <sortState ref="A2:Q19">
     <sortCondition ref="F1:F19"/>
   </sortState>
@@ -1653,14 +1829,14 @@
     <tableColumn id="1" name="LAB"/>
     <tableColumn id="15" name="URL"/>
     <tableColumn id="2" name="STREET"/>
-    <tableColumn id="7" name="ZIP" dataDxfId="9"/>
+    <tableColumn id="7" name="ZIP" dataDxfId="19"/>
     <tableColumn id="14" name="CITY"/>
     <tableColumn id="17" name="COUNTRY"/>
-    <tableColumn id="3" name="TEL" dataDxfId="8"/>
+    <tableColumn id="3" name="TEL" dataDxfId="18"/>
     <tableColumn id="4" name="CONTACT"/>
     <tableColumn id="5" name="EMAIL" dataCellStyle="Hyperlink"/>
-    <tableColumn id="16" name="LAT" dataDxfId="7"/>
-    <tableColumn id="6" name="LONG" dataDxfId="6"/>
+    <tableColumn id="16" name="LAT" dataDxfId="17"/>
+    <tableColumn id="6" name="LONG" dataDxfId="16"/>
     <tableColumn id="12" name="TSOL_CC_AB"/>
     <tableColumn id="13" name="TSOL_CC_AG"/>
     <tableColumn id="8" name="TSOL_HT"/>
@@ -1673,9 +1849,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1713,7 +1889,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1785,7 +1961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1959,27 +2135,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="5" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2085,7 +2263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -2183,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2236,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -2289,7 +2467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2339,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2392,7 +2570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -2445,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2495,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -2595,7 +2773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2645,7 +2823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2695,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2745,7 +2923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2795,7 +2973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2848,7 +3026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -2901,7 +3079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2954,7 +3132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -3004,7 +3182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -3049,7 +3227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -3099,7 +3277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -3149,7 +3327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -3196,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -3243,7 +3421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -3290,7 +3468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -3337,7 +3515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -3384,7 +3562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -3431,7 +3609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -3481,7 +3659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -3528,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -3575,7 +3753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>230</v>
       </c>
@@ -3619,7 +3797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -3663,7 +3841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -3713,7 +3891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -3760,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>254</v>
       </c>
@@ -3807,7 +3985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -3854,7 +4032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>266</v>
       </c>
@@ -3901,7 +4079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>272</v>
       </c>
@@ -3951,7 +4129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>279</v>
       </c>
@@ -3998,7 +4176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>284</v>
       </c>
@@ -4042,7 +4220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>288</v>
       </c>
@@ -4086,7 +4264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>293</v>
       </c>
@@ -4133,7 +4311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -4180,7 +4358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -4227,7 +4405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>311</v>
       </c>
@@ -4272,7 +4450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>315</v>
       </c>
@@ -4319,7 +4497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>321</v>
       </c>
@@ -4366,7 +4544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>359</v>
       </c>
@@ -4416,7 +4594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>332</v>
       </c>
@@ -4463,7 +4641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>338</v>
       </c>
@@ -4510,7 +4688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>344</v>
       </c>
@@ -4557,7 +4735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>350</v>
       </c>
@@ -4607,7 +4785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>467</v>
       </c>
@@ -4654,7 +4832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>468</v>
       </c>
@@ -4704,7 +4882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>406</v>
       </c>
@@ -4754,7 +4932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>469</v>
       </c>
@@ -4801,7 +4979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>471</v>
       </c>
@@ -4848,7 +5026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>407</v>
       </c>
@@ -4895,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>472</v>
       </c>
@@ -4942,7 +5120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -4989,7 +5167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>473</v>
       </c>
@@ -5033,7 +5211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>474</v>
       </c>
@@ -5080,7 +5258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>409</v>
       </c>
@@ -5127,7 +5305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>475</v>
       </c>
@@ -5174,7 +5352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>410</v>
       </c>
@@ -5224,7 +5402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>411</v>
       </c>
@@ -5274,7 +5452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>412</v>
       </c>
@@ -5321,7 +5499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>413</v>
       </c>
@@ -5368,7 +5546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>414</v>
       </c>
@@ -5418,7 +5596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>476</v>
       </c>
@@ -5468,7 +5646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>477</v>
       </c>
@@ -5515,16 +5693,136 @@
         <v>10</v>
       </c>
     </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>489</v>
+      </c>
+      <c r="C74" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" t="s">
+        <v>480</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H74" t="s">
+        <v>482</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J74" s="2">
+        <v>41.991297899999999</v>
+      </c>
+      <c r="K74" s="2">
+        <v>21.421704500000001</v>
+      </c>
+      <c r="L74" t="s">
+        <v>9</v>
+      </c>
+      <c r="M74" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" t="s">
+        <v>9</v>
+      </c>
+      <c r="O74" t="s">
+        <v>9</v>
+      </c>
+      <c r="P74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C75" t="s">
+        <v>486</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E75" t="s">
+        <v>488</v>
+      </c>
+      <c r="F75" t="s">
+        <v>102</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" t="s">
+        <v>9</v>
+      </c>
+      <c r="O75" t="s">
+        <v>9</v>
+      </c>
+      <c r="P75" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="L2:P17 L18:O54">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P54">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55:P73">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:O73">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P74">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74:O74">
     <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"no"</formula>
     </cfRule>
@@ -5532,24 +5830,24 @@
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P55:P73">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="L75:O75">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55:O73">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P75">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:Q73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:Q75">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5568,11 +5866,13 @@
     <hyperlink ref="B67" r:id="rId12"/>
     <hyperlink ref="B68" r:id="rId13"/>
     <hyperlink ref="I61" r:id="rId14"/>
+    <hyperlink ref="I74" r:id="rId15"/>
+    <hyperlink ref="B75" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/labs.xlsx
+++ b/labs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="498">
   <si>
     <t>LAB</t>
   </si>
@@ -1484,6 +1484,30 @@
   </si>
   <si>
     <t>Parasitological Laboratory, Institute of Microbiology and Parasitology, Faculty of Medicine, Ss. Cyril &amp; Methodius University</t>
+  </si>
+  <si>
+    <t>Salisburylaan 133</t>
+  </si>
+  <si>
+    <t>9820</t>
+  </si>
+  <si>
+    <t>Merelbeke</t>
+  </si>
+  <si>
+    <t>https://www.ugent.be/di/vph/en/research/fpz</t>
+  </si>
+  <si>
+    <t>Laboratory of Foodborne Parasitic Zoonoses, Department of Veterinary Public Health and Food Safety, Ghent University</t>
+  </si>
+  <si>
+    <t>sarah.gabriel@ugent.be</t>
+  </si>
+  <si>
+    <t>+32 9 264 7737</t>
+  </si>
+  <si>
+    <t>Sarah Gabriel</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1547,12 +1571,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1714,59 +1752,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1820,8 +1805,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q75" totalsRowShown="0">
-  <autoFilter ref="A1:Q75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q76" totalsRowShown="0">
+  <autoFilter ref="A1:Q76"/>
   <sortState ref="A2:Q19">
     <sortCondition ref="F1:F19"/>
   </sortState>
@@ -1829,14 +1814,14 @@
     <tableColumn id="1" name="LAB"/>
     <tableColumn id="15" name="URL"/>
     <tableColumn id="2" name="STREET"/>
-    <tableColumn id="7" name="ZIP" dataDxfId="19"/>
+    <tableColumn id="7" name="ZIP" dataDxfId="3"/>
     <tableColumn id="14" name="CITY"/>
     <tableColumn id="17" name="COUNTRY"/>
-    <tableColumn id="3" name="TEL" dataDxfId="18"/>
+    <tableColumn id="3" name="TEL" dataDxfId="2"/>
     <tableColumn id="4" name="CONTACT"/>
     <tableColumn id="5" name="EMAIL" dataCellStyle="Hyperlink"/>
-    <tableColumn id="16" name="LAT" dataDxfId="17"/>
-    <tableColumn id="6" name="LONG" dataDxfId="16"/>
+    <tableColumn id="16" name="LAT" dataDxfId="1"/>
+    <tableColumn id="6" name="LONG" dataDxfId="0"/>
     <tableColumn id="12" name="TSOL_CC_AB"/>
     <tableColumn id="13" name="TSOL_CC_AG"/>
     <tableColumn id="8" name="TSOL_HT"/>
@@ -2135,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5781,56 +5766,125 @@
         <v>9</v>
       </c>
     </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C76" t="s">
+        <v>490</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E76" t="s">
+        <v>492</v>
+      </c>
+      <c r="F76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H76" t="s">
+        <v>497</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J76" s="2">
+        <v>50.9982805</v>
+      </c>
+      <c r="K76" s="2">
+        <v>3.7661267999999999</v>
+      </c>
+      <c r="L76" t="s">
+        <v>9</v>
+      </c>
+      <c r="M76" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" t="s">
+        <v>9</v>
+      </c>
+      <c r="O76" t="s">
+        <v>9</v>
+      </c>
+      <c r="P76" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="L2:P17 L18:O54">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P54">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55:P73">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:O73">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74:O74">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:O75">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P75">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76:O76">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"no"</formula>
     </cfRule>
@@ -5838,16 +5892,16 @@
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P75">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="P76">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:Q75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:Q76">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5868,11 +5922,13 @@
     <hyperlink ref="I61" r:id="rId14"/>
     <hyperlink ref="I74" r:id="rId15"/>
     <hyperlink ref="B75" r:id="rId16"/>
+    <hyperlink ref="B76" r:id="rId17"/>
+    <hyperlink ref="I76" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/labs.xlsx
+++ b/labs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="501">
   <si>
     <t>LAB</t>
   </si>
@@ -1508,6 +1508,15 @@
   </si>
   <si>
     <t>Sarah Gabriel</t>
+  </si>
+  <si>
+    <t>+44 20 3447 5418</t>
+  </si>
+  <si>
+    <t>Prof PL Chiodini</t>
+  </si>
+  <si>
+    <t>p.chiodini@nhs.net</t>
   </si>
 </sst>
 </file>
@@ -1578,19 +1587,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1791,6 +1787,19 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1814,14 +1823,14 @@
     <tableColumn id="1" name="LAB"/>
     <tableColumn id="15" name="URL"/>
     <tableColumn id="2" name="STREET"/>
-    <tableColumn id="7" name="ZIP" dataDxfId="3"/>
+    <tableColumn id="7" name="ZIP" dataDxfId="23"/>
     <tableColumn id="14" name="CITY"/>
     <tableColumn id="17" name="COUNTRY"/>
-    <tableColumn id="3" name="TEL" dataDxfId="2"/>
+    <tableColumn id="3" name="TEL" dataDxfId="22"/>
     <tableColumn id="4" name="CONTACT"/>
     <tableColumn id="5" name="EMAIL" dataCellStyle="Hyperlink"/>
-    <tableColumn id="16" name="LAT" dataDxfId="1"/>
-    <tableColumn id="6" name="LONG" dataDxfId="0"/>
+    <tableColumn id="16" name="LAT" dataDxfId="21"/>
+    <tableColumn id="6" name="LONG" dataDxfId="20"/>
     <tableColumn id="12" name="TSOL_CC_AB"/>
     <tableColumn id="13" name="TSOL_CC_AG"/>
     <tableColumn id="8" name="TSOL_HT"/>
@@ -2122,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5744,9 +5753,21 @@
       <c r="F75" t="s">
         <v>102</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="G75" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H75" t="s">
+        <v>499</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J75" s="2">
+        <v>51.522748</v>
+      </c>
+      <c r="K75" s="2">
+        <v>-0.13553780000000001</v>
+      </c>
       <c r="L75" t="s">
         <v>9</v>
       </c>
@@ -5821,82 +5842,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:P17 L18:O54">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P54">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55:P73">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:O73">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74:O74">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:O75">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L76:O76">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5924,11 +5945,12 @@
     <hyperlink ref="B75" r:id="rId16"/>
     <hyperlink ref="B76" r:id="rId17"/>
     <hyperlink ref="I76" r:id="rId18"/>
+    <hyperlink ref="I75" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>